--- a/리볼트데이 버그 리포트19-01-30.xlsx
+++ b/리볼트데이 버그 리포트19-01-30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,22 @@
   </si>
   <si>
     <t>(월드맵, 메인타이틀, 게임오버 BGM은 금일 내에 빠르게 리스트 올리겠음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리에 사용되는 BGM이 들어가지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,9 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +299,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O41"/>
+  <dimension ref="A4:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,13 +695,13 @@
         <v>35</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -702,13 +718,13 @@
         <v>37</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -727,50 +743,50 @@
       <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
@@ -975,9 +991,26 @@
       <c r="D39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
         <v>44</v>
       </c>
     </row>

--- a/리볼트데이 버그 리포트19-01-30.xlsx
+++ b/리볼트데이 버그 리포트19-01-30.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9926AF54-CA7E-46C3-B9E4-43BE6E2A44DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,13 +215,37 @@
   </si>
   <si>
     <t>추리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장을 하여도 저장된 것에 세이브 데이터의 간략 기록(언제 저장했는지)이 출력되지 않음(저장자체는 정상작동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로드 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로드 후 한번 움직이면 그다음 이동이 되지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,28 +306,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -583,22 +609,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="84.25" customWidth="1"/>
-    <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" customWidth="1"/>
+    <col min="4" max="4" width="98.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -606,7 +632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -614,403 +640,404 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
+    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3">
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>28</v>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
         <v>44</v>
       </c>
     </row>

--- a/리볼트데이 버그 리포트19-01-30.xlsx
+++ b/리볼트데이 버그 리포트19-01-30.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9926AF54-CA7E-46C3-B9E4-43BE6E2A44DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일시 2019/01/30 12:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,14 +234,54 @@
   </si>
   <si>
     <t>로드 후 한번 움직이면 그다음 이동이 되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 코드 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 뜻인지 모르겠음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상 이해 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현함 인스펙터에서 추가 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 수정 필요 PD님 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해 안됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +312,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +339,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -300,38 +361,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,211 +702,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.8984375" customWidth="1"/>
-    <col min="3" max="3" width="21.19921875" customWidth="1"/>
-    <col min="4" max="4" width="98.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="8.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="98.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.75" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="F12" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="4">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2">
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -821,230 +929,256 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6">
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5">
         <v>7</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B30">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="14">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B31">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
         <v>2</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B32">
+      <c r="F31" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="10">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33">
+      <c r="F32" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34">
+      <c r="F33" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="14">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="14">
         <v>6</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="10">
+        <v>7</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="10">
+        <v>8</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38">
+      <c r="F37" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="10">
         <v>9</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="10">
+        <v>10</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D42" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F14:L17"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
